--- a/regoutput_tech.xlsx
+++ b/regoutput_tech.xlsx
@@ -107,6 +107,9 @@
     <t xml:space="preserve">0.0395742109588231</t>
   </si>
   <si>
+    <t xml:space="preserve">*</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.200515058752711</t>
   </si>
   <si>
@@ -122,9 +125,6 @@
     <t xml:space="preserve">0.042508059903892</t>
   </si>
   <si>
-    <t xml:space="preserve">*</t>
-  </si>
-  <si>
     <t xml:space="preserve">0.168843848539193</t>
   </si>
   <si>
@@ -137,13 +137,13 @@
     <t xml:space="preserve">0.0661503973490344</t>
   </si>
   <si>
+    <t xml:space="preserve">.</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.136939892005478</t>
   </si>
   <si>
     <t xml:space="preserve">0.0622248396574239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">.</t>
   </si>
   <si>
     <t xml:space="preserve">factor(bra10grp_code)5</t>
@@ -1021,13 +1021,13 @@
         <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="K3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M3" t="s">
         <v>26</v>
@@ -1035,16 +1035,16 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
         <v>37</v>
@@ -1053,7 +1053,7 @@
         <v>38</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H4" t="s">
         <v>39</v>
@@ -1062,16 +1062,16 @@
         <v>40</v>
       </c>
       <c r="J4" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="K4" t="s">
+        <v>42</v>
+      </c>
+      <c r="L4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M4" t="s">
         <v>41</v>
-      </c>
-      <c r="L4" t="s">
-        <v>42</v>
-      </c>
-      <c r="M4" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="5">
@@ -1217,7 +1217,7 @@
         <v>75</v>
       </c>
       <c r="G8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H8" t="s">
         <v>76</v>
@@ -1226,7 +1226,7 @@
         <v>77</v>
       </c>
       <c r="J8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K8" t="s">
         <v>78</v>
@@ -1258,7 +1258,7 @@
         <v>84</v>
       </c>
       <c r="G9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H9" t="s">
         <v>85</v>
@@ -1267,7 +1267,7 @@
         <v>86</v>
       </c>
       <c r="J9" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="K9" t="s">
         <v>87</v>
@@ -1372,7 +1372,7 @@
         <v>109</v>
       </c>
       <c r="D12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E12" t="s">
         <v>110</v>
@@ -1390,7 +1390,7 @@
         <v>113</v>
       </c>
       <c r="J12" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="K12" t="s">
         <v>114</v>
@@ -1399,7 +1399,7 @@
         <v>115</v>
       </c>
       <c r="M12" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13">
@@ -1413,7 +1413,7 @@
         <v>118</v>
       </c>
       <c r="D13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E13" t="s">
         <v>119</v>
@@ -1422,7 +1422,7 @@
         <v>120</v>
       </c>
       <c r="G13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H13" t="s">
         <v>121</v>
@@ -1431,7 +1431,7 @@
         <v>122</v>
       </c>
       <c r="J13" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="K13" t="s">
         <v>123</v>
@@ -1454,7 +1454,7 @@
         <v>127</v>
       </c>
       <c r="D14" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E14" t="s">
         <v>128</v>
@@ -1472,7 +1472,7 @@
         <v>132</v>
       </c>
       <c r="J14" t="s">
-        <v>130</v>
+        <v>26</v>
       </c>
       <c r="K14" t="s">
         <v>133</v>
@@ -1495,7 +1495,7 @@
         <v>137</v>
       </c>
       <c r="D15" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E15" t="s">
         <v>138</v>
@@ -1504,7 +1504,7 @@
         <v>139</v>
       </c>
       <c r="G15" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H15" t="s">
         <v>140</v>
@@ -1513,7 +1513,7 @@
         <v>141</v>
       </c>
       <c r="J15" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="K15" t="s">
         <v>142</v>
@@ -1545,7 +1545,7 @@
         <v>148</v>
       </c>
       <c r="G16" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H16" t="s">
         <v>149</v>
@@ -1554,7 +1554,7 @@
         <v>150</v>
       </c>
       <c r="J16" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="K16" t="s">
         <v>151</v>
@@ -1595,7 +1595,7 @@
         <v>159</v>
       </c>
       <c r="J17" t="s">
-        <v>130</v>
+        <v>26</v>
       </c>
       <c r="K17" t="s">
         <v>160</v>
@@ -1636,7 +1636,7 @@
         <v>168</v>
       </c>
       <c r="J18" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="K18" t="s">
         <v>169</v>
@@ -1668,7 +1668,7 @@
         <v>175</v>
       </c>
       <c r="G19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H19" t="s">
         <v>176</v>
@@ -1677,7 +1677,7 @@
         <v>177</v>
       </c>
       <c r="J19" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="K19" t="s">
         <v>178</v>
@@ -1709,7 +1709,7 @@
         <v>184</v>
       </c>
       <c r="G20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H20" t="s">
         <v>185</v>
@@ -1718,7 +1718,7 @@
         <v>186</v>
       </c>
       <c r="J20" t="s">
-        <v>43</v>
+        <v>130</v>
       </c>
       <c r="K20" t="s">
         <v>187</v>
@@ -1727,7 +1727,7 @@
         <v>188</v>
       </c>
       <c r="M20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
